--- a/bioinfo-m2/Results/Bacteria/Total_PVC group.xlsx
+++ b/bioinfo-m2/Results/Bacteria/Total_PVC group.xlsx
@@ -33,7 +33,7 @@
     <t>Modification date</t>
   </si>
   <si>
-    <t>14-Dec-2017</t>
+    <t>19-Dec-2017</t>
   </si>
   <si>
     <t>BioProject</t>
@@ -521,31 +521,31 @@
         <v>18</v>
       </c>
       <c r="B2" t="n" s="6">
-        <v>1610162.0</v>
+        <v>1624799.0</v>
       </c>
       <c r="C2" t="n" s="7">
-        <v>3.252876116818706</v>
+        <v>3.2583071291254395</v>
       </c>
       <c r="D2" t="n" s="6">
-        <v>1379877.0</v>
+        <v>1392119.0</v>
       </c>
       <c r="E2" t="n" s="7">
-        <v>2.7876505205360984</v>
+        <v>2.7916999347556084</v>
       </c>
       <c r="F2" t="n" s="6">
-        <v>1163868.0</v>
+        <v>1176158.0</v>
       </c>
       <c r="G2" t="n" s="7">
-        <v>2.351265537461171</v>
+        <v>2.3586203563504893</v>
       </c>
       <c r="H2" t="n" s="6">
-        <v>93015.0</v>
+        <v>93675.0</v>
       </c>
       <c r="I2" t="n" s="6">
-        <v>51667.0</v>
+        <v>51942.0</v>
       </c>
       <c r="J2" t="n" s="6">
-        <v>24689.0</v>
+        <v>24947.0</v>
       </c>
       <c r="M2" t="s" s="3">
         <v>0</v>
@@ -559,31 +559,31 @@
         <v>19</v>
       </c>
       <c r="B3" t="n" s="8">
-        <v>717483.0</v>
+        <v>722454.0</v>
       </c>
       <c r="C3" t="n" s="9">
-        <v>1.449471118386495</v>
+        <v>1.4487804452521145</v>
       </c>
       <c r="D3" t="n" s="8">
-        <v>860744.0</v>
+        <v>867228.0</v>
       </c>
       <c r="E3" t="n" s="9">
-        <v>1.7388893790159003</v>
+        <v>1.7391044522905272</v>
       </c>
       <c r="F3" t="n" s="8">
-        <v>715474.0</v>
+        <v>721370.0</v>
       </c>
       <c r="G3" t="n" s="9">
-        <v>1.4454125030926992</v>
+        <v>1.4466066348743556</v>
       </c>
       <c r="H3" t="n" s="10">
-        <v>44246.0</v>
+        <v>44479.0</v>
       </c>
       <c r="I3" t="n" s="10">
-        <v>72154.0</v>
+        <v>72725.0</v>
       </c>
       <c r="J3" t="n" s="10">
-        <v>49124.0</v>
+        <v>49529.0</v>
       </c>
     </row>
     <row r="4">
@@ -591,37 +591,37 @@
         <v>20</v>
       </c>
       <c r="B4" t="n" s="6">
-        <v>909907.0</v>
+        <v>917521.0</v>
       </c>
       <c r="C4" t="n" s="7">
-        <v>1.8382092912552637</v>
+        <v>1.8399600291619471</v>
       </c>
       <c r="D4" t="n" s="6">
-        <v>1800866.0</v>
+        <v>1816375.0</v>
       </c>
       <c r="E4" t="n" s="7">
-        <v>3.6381395170118505</v>
+        <v>3.6424860008316227</v>
       </c>
       <c r="F4" t="n" s="6">
-        <v>440891.0</v>
+        <v>445351.0</v>
       </c>
       <c r="G4" t="n" s="7">
-        <v>0.8906953486793976</v>
+        <v>0.8930891379568447</v>
       </c>
       <c r="H4" t="n" s="6">
-        <v>33628.0</v>
+        <v>33792.0</v>
       </c>
       <c r="I4" t="n" s="6">
-        <v>111095.0</v>
+        <v>111983.0</v>
       </c>
       <c r="J4" t="n" s="6">
-        <v>7431.0</v>
+        <v>7484.0</v>
       </c>
       <c r="M4" t="s" s="3">
         <v>2</v>
       </c>
       <c r="N4" t="n" s="1">
-        <v>1.23783884E8</v>
+        <v>1.24700906E8</v>
       </c>
     </row>
     <row r="5">
@@ -629,31 +629,31 @@
         <v>21</v>
       </c>
       <c r="B5" t="n" s="8">
-        <v>995241.0</v>
+        <v>1004832.0</v>
       </c>
       <c r="C5" t="n" s="9">
-        <v>2.010602460732998</v>
+        <v>2.0150500272177503</v>
       </c>
       <c r="D5" t="n" s="8">
-        <v>674520.0</v>
+        <v>680068.0</v>
       </c>
       <c r="E5" t="n" s="9">
-        <v>1.362676549512753</v>
+        <v>1.3637812509055456</v>
       </c>
       <c r="F5" t="n" s="8">
-        <v>798863.0</v>
+        <v>806336.0</v>
       </c>
       <c r="G5" t="n" s="9">
-        <v>1.6138763511436376</v>
+        <v>1.6169940634321478</v>
       </c>
       <c r="H5" t="n" s="10">
-        <v>77055.0</v>
+        <v>77626.0</v>
       </c>
       <c r="I5" t="n" s="10">
-        <v>39761.0</v>
+        <v>39952.0</v>
       </c>
       <c r="J5" t="n" s="10">
-        <v>55188.0</v>
+        <v>55616.0</v>
       </c>
     </row>
     <row r="6">
@@ -661,37 +661,37 @@
         <v>22</v>
       </c>
       <c r="B6" t="n" s="6">
-        <v>677733.0</v>
+        <v>684289.0</v>
       </c>
       <c r="C6" t="n" s="7">
-        <v>1.3691675056794856</v>
+        <v>1.3722458760019656</v>
       </c>
       <c r="D6" t="n" s="6">
-        <v>653190.0</v>
+        <v>657266.0</v>
       </c>
       <c r="E6" t="n" s="7">
-        <v>1.3195853279016712</v>
+        <v>1.3180550292877833</v>
       </c>
       <c r="F6" t="n" s="6">
-        <v>691461.0</v>
+        <v>697249.0</v>
       </c>
       <c r="G6" t="n" s="7">
-        <v>1.396901040150978</v>
+        <v>1.3982353432489703</v>
       </c>
       <c r="H6" t="n" s="6">
-        <v>53961.0</v>
+        <v>54499.0</v>
       </c>
       <c r="I6" t="n" s="6">
-        <v>53702.0</v>
+        <v>53880.0</v>
       </c>
       <c r="J6" t="n" s="6">
-        <v>59239.0</v>
+        <v>59714.0</v>
       </c>
       <c r="M6" t="s" s="3">
         <v>3</v>
       </c>
       <c r="N6" t="n" s="1">
-        <v>717483.0</v>
+        <v>722454.0</v>
       </c>
     </row>
     <row r="7">
@@ -699,31 +699,31 @@
         <v>23</v>
       </c>
       <c r="B7" t="n" s="8">
-        <v>713377.0</v>
+        <v>717427.0</v>
       </c>
       <c r="C7" t="n" s="9">
-        <v>1.4411761087317785</v>
+        <v>1.4386994998932647</v>
       </c>
       <c r="D7" t="n" s="8">
-        <v>615874.0</v>
+        <v>619712.0</v>
       </c>
       <c r="E7" t="n" s="9">
-        <v>1.2441989225740042</v>
+        <v>1.2427457350752826</v>
       </c>
       <c r="F7" t="n" s="8">
-        <v>354293.0</v>
+        <v>356884.0</v>
       </c>
       <c r="G7" t="n" s="9">
-        <v>0.715748625328414</v>
+        <v>0.7156809435941327</v>
       </c>
       <c r="H7" t="n" s="10">
-        <v>78049.0</v>
+        <v>78577.0</v>
       </c>
       <c r="I7" t="n" s="10">
-        <v>62732.0</v>
+        <v>63220.0</v>
       </c>
       <c r="J7" t="n" s="10">
-        <v>35384.0</v>
+        <v>35675.0</v>
       </c>
     </row>
     <row r="8">
@@ -731,31 +731,31 @@
         <v>24</v>
       </c>
       <c r="B8" t="n" s="6">
-        <v>574317.0</v>
+        <v>577151.0</v>
       </c>
       <c r="C8" t="n" s="7">
-        <v>1.1602447783409175</v>
+        <v>1.157395602706474</v>
       </c>
       <c r="D8" t="n" s="6">
-        <v>830033.0</v>
+        <v>833907.0</v>
       </c>
       <c r="E8" t="n" s="7">
-        <v>1.6768465048059642</v>
+        <v>1.672283847495972</v>
       </c>
       <c r="F8" t="n" s="6">
-        <v>402433.0</v>
+        <v>405277.0</v>
       </c>
       <c r="G8" t="n" s="7">
-        <v>0.8130018559124499</v>
+        <v>0.8127263362240934</v>
       </c>
       <c r="H8" t="n" s="6">
-        <v>47930.0</v>
+        <v>48277.0</v>
       </c>
       <c r="I8" t="n" s="6">
-        <v>83267.0</v>
+        <v>83857.0</v>
       </c>
       <c r="J8" t="n" s="6">
-        <v>42734.0</v>
+        <v>43125.0</v>
       </c>
       <c r="M8" t="s" s="3">
         <v>4</v>
@@ -769,31 +769,31 @@
         <v>25</v>
       </c>
       <c r="B9" t="n" s="8">
-        <v>648336.0</v>
+        <v>654912.0</v>
       </c>
       <c r="C9" t="n" s="9">
-        <v>1.3097791961763925</v>
+        <v>1.3133344115486283</v>
       </c>
       <c r="D9" t="n" s="8">
-        <v>520515.0</v>
+        <v>524605.0</v>
       </c>
       <c r="E9" t="n" s="9">
-        <v>1.0515530809607285</v>
+        <v>1.0520219494687348</v>
       </c>
       <c r="F9" t="n" s="8">
-        <v>576631.0</v>
+        <v>581531.0</v>
       </c>
       <c r="G9" t="n" s="9">
-        <v>1.1649195597196351</v>
+        <v>1.1661790800631007</v>
       </c>
       <c r="H9" t="n" s="10">
-        <v>68742.0</v>
+        <v>69385.0</v>
       </c>
       <c r="I9" t="n" s="10">
-        <v>46516.0</v>
+        <v>46742.0</v>
       </c>
       <c r="J9" t="n" s="10">
-        <v>56845.0</v>
+        <v>57245.0</v>
       </c>
     </row>
     <row r="10">
@@ -801,31 +801,31 @@
         <v>26</v>
       </c>
       <c r="B10" t="n" s="6">
-        <v>387026.0</v>
+        <v>390981.0</v>
       </c>
       <c r="C10" t="n" s="7">
-        <v>0.7818763776488803</v>
+        <v>0.7840577078473051</v>
       </c>
       <c r="D10" t="n" s="6">
-        <v>815289.0</v>
+        <v>822016.0</v>
       </c>
       <c r="E10" t="n" s="7">
-        <v>1.6470604301958471</v>
+        <v>1.6484381102248198</v>
       </c>
       <c r="F10" t="n" s="6">
-        <v>1805816.0</v>
+        <v>1823671.0</v>
       </c>
       <c r="G10" t="n" s="7">
-        <v>3.6481395895376294</v>
+        <v>3.6571171083188254</v>
       </c>
       <c r="H10" t="n" s="6">
-        <v>7535.0</v>
+        <v>7593.0</v>
       </c>
       <c r="I10" t="n" s="6">
-        <v>38172.0</v>
+        <v>38252.0</v>
       </c>
       <c r="J10" t="n" s="6">
-        <v>106630.0</v>
+        <v>107589.0</v>
       </c>
       <c r="M10" t="s" s="3">
         <v>5</v>
@@ -839,31 +839,31 @@
         <v>27</v>
       </c>
       <c r="B11" t="n" s="8">
-        <v>542527.0</v>
+        <v>545878.0</v>
       </c>
       <c r="C11" t="n" s="9">
-        <v>1.096022090342029</v>
+        <v>1.0946819754521862</v>
       </c>
       <c r="D11" t="n" s="8">
-        <v>808533.0</v>
+        <v>813582.0</v>
       </c>
       <c r="E11" t="n" s="9">
-        <v>1.6334118463606635</v>
+        <v>1.6315249029129963</v>
       </c>
       <c r="F11" t="n" s="8">
-        <v>1146599.0</v>
+        <v>1155617.0</v>
       </c>
       <c r="G11" t="n" s="9">
-        <v>2.316378415754571</v>
+        <v>2.3174282539800632</v>
       </c>
       <c r="H11" t="n" s="10">
-        <v>20142.0</v>
+        <v>20256.0</v>
       </c>
       <c r="I11" t="n" s="10">
-        <v>46279.0</v>
+        <v>46540.0</v>
       </c>
       <c r="J11" t="n" s="10">
-        <v>91197.0</v>
+        <v>92006.0</v>
       </c>
     </row>
     <row r="12">
@@ -871,31 +871,31 @@
         <v>28</v>
       </c>
       <c r="B12" t="n" s="6">
-        <v>144473.0</v>
+        <v>146062.0</v>
       </c>
       <c r="C12" t="n" s="7">
-        <v>0.2918667632357172</v>
+        <v>0.29290691088209675</v>
       </c>
       <c r="D12" t="n" s="6">
-        <v>870172.0</v>
+        <v>876010.0</v>
       </c>
       <c r="E12" t="n" s="7">
-        <v>1.7579359817983327</v>
+        <v>1.7567155249265762</v>
       </c>
       <c r="F12" t="n" s="6">
-        <v>1022135.0</v>
+        <v>1031795.0</v>
       </c>
       <c r="G12" t="n" s="7">
-        <v>2.0649341679063893</v>
+        <v>2.069120552324308</v>
       </c>
       <c r="H12" t="n" s="6">
-        <v>6635.0</v>
+        <v>6676.0</v>
       </c>
       <c r="I12" t="n" s="6">
-        <v>62341.0</v>
+        <v>62636.0</v>
       </c>
       <c r="J12" t="n" s="6">
-        <v>88265.0</v>
+        <v>89066.0</v>
       </c>
       <c r="M12" t="s" s="3">
         <v>7</v>
@@ -909,31 +909,31 @@
         <v>29</v>
       </c>
       <c r="B13" t="n" s="8">
-        <v>457297.0</v>
+        <v>461514.0</v>
       </c>
       <c r="C13" t="n" s="9">
-        <v>0.9238390233981698</v>
+        <v>0.9255017736908985</v>
       </c>
       <c r="D13" t="n" s="8">
-        <v>489464.0</v>
+        <v>493029.0</v>
       </c>
       <c r="E13" t="n" s="9">
-        <v>0.988823333082355</v>
+        <v>0.9887006980959406</v>
       </c>
       <c r="F13" t="n" s="8">
-        <v>684789.0</v>
+        <v>691128.0</v>
       </c>
       <c r="G13" t="n" s="9">
-        <v>1.3834221545162317</v>
+        <v>1.385960533911091</v>
       </c>
       <c r="H13" t="n" s="10">
-        <v>37475.0</v>
+        <v>37765.0</v>
       </c>
       <c r="I13" t="n" s="10">
-        <v>50585.0</v>
+        <v>50797.0</v>
       </c>
       <c r="J13" t="n" s="10">
-        <v>82925.0</v>
+        <v>83634.0</v>
       </c>
     </row>
     <row r="14">
@@ -941,31 +941,31 @@
         <v>30</v>
       </c>
       <c r="B14" t="n" s="6">
-        <v>427253.0</v>
+        <v>432243.0</v>
       </c>
       <c r="C14" t="n" s="7">
-        <v>0.8631436337083737</v>
+        <v>0.8668028774110319</v>
       </c>
       <c r="D14" t="n" s="6">
-        <v>936036.0</v>
+        <v>946085.0</v>
       </c>
       <c r="E14" t="n" s="7">
-        <v>1.8909955326746712</v>
+        <v>1.8972411358319654</v>
       </c>
       <c r="F14" t="n" s="6">
-        <v>283113.0</v>
+        <v>285541.0</v>
       </c>
       <c r="G14" t="n" s="7">
-        <v>0.5719496026243908</v>
+        <v>0.5726125360476017</v>
       </c>
       <c r="H14" t="n" s="6">
-        <v>35135.0</v>
+        <v>35346.0</v>
       </c>
       <c r="I14" t="n" s="6">
-        <v>114097.0</v>
+        <v>114972.0</v>
       </c>
       <c r="J14" t="n" s="6">
-        <v>28035.0</v>
+        <v>28084.0</v>
       </c>
     </row>
     <row r="15">
@@ -973,31 +973,31 @@
         <v>31</v>
       </c>
       <c r="B15" t="n" s="8">
-        <v>1185043.0</v>
+        <v>1192823.0</v>
       </c>
       <c r="C15" t="n" s="9">
-        <v>2.3940436254881123</v>
+        <v>2.392039682868339</v>
       </c>
       <c r="D15" t="n" s="8">
-        <v>1082760.0</v>
+        <v>1091319.0</v>
       </c>
       <c r="E15" t="n" s="9">
-        <v>2.187409803638778</v>
+        <v>2.188487608528837</v>
       </c>
       <c r="F15" t="n" s="8">
-        <v>561976.0</v>
+        <v>566753.0</v>
       </c>
       <c r="G15" t="n" s="9">
-        <v>1.1353132843933151</v>
+        <v>1.1365438681050581</v>
       </c>
       <c r="H15" t="n" s="10">
-        <v>74401.0</v>
+        <v>74869.0</v>
       </c>
       <c r="I15" t="n" s="10">
-        <v>65982.0</v>
+        <v>66524.0</v>
       </c>
       <c r="J15" t="n" s="10">
-        <v>18437.0</v>
+        <v>18598.0</v>
       </c>
     </row>
     <row r="16">
@@ -1005,31 +1005,31 @@
         <v>32</v>
       </c>
       <c r="B16" t="n" s="6">
-        <v>995277.0</v>
+        <v>1002268.0</v>
       </c>
       <c r="C16" t="n" s="7">
-        <v>2.0106751885331855</v>
+        <v>2.0099082838519076</v>
       </c>
       <c r="D16" t="n" s="6">
-        <v>1266115.0</v>
+        <v>1276659.0</v>
       </c>
       <c r="E16" t="n" s="7">
-        <v>2.5578266315103173</v>
+        <v>2.5601610544825264</v>
       </c>
       <c r="F16" t="n" s="6">
-        <v>252119.0</v>
+        <v>254419.0</v>
       </c>
       <c r="G16" t="n" s="7">
-        <v>0.5093350070963141</v>
+        <v>0.5102017181725033</v>
       </c>
       <c r="H16" t="n" s="6">
-        <v>63059.0</v>
+        <v>63444.0</v>
       </c>
       <c r="I16" t="n" s="6">
-        <v>88175.0</v>
+        <v>88890.0</v>
       </c>
       <c r="J16" t="n" s="6">
-        <v>4766.0</v>
+        <v>4805.0</v>
       </c>
     </row>
     <row r="17">
@@ -1037,31 +1037,31 @@
         <v>33</v>
       </c>
       <c r="B17" t="n" s="8">
-        <v>1406633.0</v>
+        <v>1419189.0</v>
       </c>
       <c r="C17" t="n" s="9">
-        <v>2.8417034378087713</v>
+        <v>2.8459850333957633</v>
       </c>
       <c r="D17" t="n" s="8">
-        <v>811421.0</v>
+        <v>818012.0</v>
       </c>
       <c r="E17" t="n" s="9">
-        <v>1.6392462321090369</v>
+        <v>1.6404086482759768</v>
       </c>
       <c r="F17" t="n" s="8">
-        <v>876604.0</v>
+        <v>883898.0</v>
       </c>
       <c r="G17" t="n" s="9">
-        <v>1.770930015431829</v>
+        <v>1.7725338056090123</v>
       </c>
       <c r="H17" t="n" s="10">
-        <v>101507.0</v>
+        <v>102271.0</v>
       </c>
       <c r="I17" t="n" s="10">
-        <v>30341.0</v>
+        <v>30488.0</v>
       </c>
       <c r="J17" t="n" s="10">
-        <v>32339.0</v>
+        <v>32537.0</v>
       </c>
     </row>
     <row r="18">
@@ -1069,31 +1069,31 @@
         <v>34</v>
       </c>
       <c r="B18" t="n" s="6">
-        <v>1147671.0</v>
+        <v>1157129.0</v>
       </c>
       <c r="C18" t="n" s="7">
-        <v>2.31854408802682</v>
+        <v>2.320460358492214</v>
       </c>
       <c r="D18" t="n" s="6">
-        <v>613959.0</v>
+        <v>619880.0</v>
       </c>
       <c r="E18" t="n" s="7">
-        <v>1.2403302076473646</v>
+        <v>1.243082635576633</v>
       </c>
       <c r="F18" t="n" s="6">
-        <v>1030355.0</v>
+        <v>1036627.0</v>
       </c>
       <c r="G18" t="n" s="7">
-        <v>2.0815403489491975</v>
+        <v>2.078810452458376</v>
       </c>
       <c r="H18" t="n" s="6">
-        <v>79934.0</v>
+        <v>80651.0</v>
       </c>
       <c r="I18" t="n" s="6">
-        <v>22489.0</v>
+        <v>22726.0</v>
       </c>
       <c r="J18" t="n" s="6">
-        <v>57060.0</v>
+        <v>57290.0</v>
       </c>
     </row>
     <row r="19">
@@ -1101,31 +1101,31 @@
         <v>35</v>
       </c>
       <c r="B19" t="n" s="8">
-        <v>446279.0</v>
+        <v>449047.0</v>
       </c>
       <c r="C19" t="n" s="9">
-        <v>0.901580276107457</v>
+        <v>0.9005009489865462</v>
       </c>
       <c r="D19" t="n" s="8">
-        <v>413834.0</v>
+        <v>416857.0</v>
       </c>
       <c r="E19" t="n" s="9">
-        <v>0.8360343461884905</v>
+        <v>0.8359484064957224</v>
       </c>
       <c r="F19" t="n" s="8">
-        <v>666009.0</v>
+        <v>669738.0</v>
       </c>
       <c r="G19" t="n" s="9">
-        <v>1.3454824854184297</v>
+        <v>1.3430658807927711</v>
       </c>
       <c r="H19" t="n" s="10">
-        <v>48813.0</v>
+        <v>49230.0</v>
       </c>
       <c r="I19" t="n" s="10">
-        <v>50788.0</v>
+        <v>51238.0</v>
       </c>
       <c r="J19" t="n" s="10">
-        <v>80013.0</v>
+        <v>80536.0</v>
       </c>
     </row>
     <row r="20">
@@ -1133,31 +1133,31 @@
         <v>36</v>
       </c>
       <c r="B20" t="n" s="6">
-        <v>842104.0</v>
+        <v>847004.0</v>
       </c>
       <c r="C20" t="n" s="7">
-        <v>1.7012325402521604</v>
+        <v>1.698548049080387</v>
       </c>
       <c r="D20" t="n" s="6">
-        <v>1003687.0</v>
+        <v>1012918.0</v>
       </c>
       <c r="E20" t="n" s="7">
-        <v>2.0276652107436495</v>
+        <v>2.0312653692053493</v>
       </c>
       <c r="F20" t="n" s="6">
-        <v>371333.0</v>
+        <v>373391.0</v>
       </c>
       <c r="G20" t="n" s="7">
-        <v>0.7501731174171546</v>
+        <v>0.748783423211903</v>
       </c>
       <c r="H20" t="n" s="6">
-        <v>57433.0</v>
+        <v>57680.0</v>
       </c>
       <c r="I20" t="n" s="6">
-        <v>87269.0</v>
+        <v>88142.0</v>
       </c>
       <c r="J20" t="n" s="6">
-        <v>15551.0</v>
+        <v>15611.0</v>
       </c>
     </row>
     <row r="21">
@@ -1165,31 +1165,31 @@
         <v>37</v>
       </c>
       <c r="B21" t="n" s="8">
-        <v>699591.0</v>
+        <v>705460.0</v>
       </c>
       <c r="C21" t="n" s="9">
-        <v>1.4133254016933172</v>
+        <v>1.4147013552524543</v>
       </c>
       <c r="D21" t="n" s="8">
-        <v>393322.0</v>
+        <v>396680.0</v>
       </c>
       <c r="E21" t="n" s="9">
-        <v>0.7945956618150017</v>
+        <v>0.7954862552115549</v>
       </c>
       <c r="F21" t="n" s="8">
-        <v>902142.0</v>
+        <v>908328.0</v>
       </c>
       <c r="G21" t="n" s="9">
-        <v>1.8225223087981586</v>
+        <v>1.8215247535136667</v>
       </c>
       <c r="H21" t="n" s="10">
-        <v>60768.0</v>
+        <v>61279.0</v>
       </c>
       <c r="I21" t="n" s="10">
-        <v>20464.0</v>
+        <v>20637.0</v>
       </c>
       <c r="J21" t="n" s="10">
-        <v>82252.0</v>
+        <v>82780.0</v>
       </c>
     </row>
     <row r="22">
@@ -1197,31 +1197,31 @@
         <v>38</v>
       </c>
       <c r="B22" t="n" s="6">
-        <v>441666.0</v>
+        <v>444924.0</v>
       </c>
       <c r="C22" t="n" s="7">
-        <v>0.8922610166001002</v>
+        <v>0.8922328491825801</v>
       </c>
       <c r="D22" t="n" s="6">
-        <v>722532.0</v>
+        <v>726549.0</v>
       </c>
       <c r="E22" t="n" s="7">
-        <v>1.4596711923627892</v>
+        <v>1.456992394972522</v>
       </c>
       <c r="F22" t="n" s="6">
-        <v>648938.0</v>
+        <v>653496.0</v>
       </c>
       <c r="G22" t="n" s="7">
-        <v>1.3109953666128609</v>
+        <v>1.3104948216086778</v>
       </c>
       <c r="H22" t="n" s="6">
-        <v>42910.0</v>
+        <v>43250.0</v>
       </c>
       <c r="I22" t="n" s="6">
-        <v>68717.0</v>
+        <v>69113.0</v>
       </c>
       <c r="J22" t="n" s="6">
-        <v>60000.0</v>
+        <v>60552.0</v>
       </c>
     </row>
     <row r="23">
@@ -1229,31 +1229,31 @@
         <v>39</v>
       </c>
       <c r="B23" t="n" s="8">
-        <v>524381.0</v>
+        <v>527816.0</v>
       </c>
       <c r="C23" t="n" s="9">
-        <v>1.0593632386141951</v>
+        <v>1.0584611608368006</v>
       </c>
       <c r="D23" t="n" s="8">
-        <v>526151.0</v>
+        <v>529457.0</v>
       </c>
       <c r="E23" t="n" s="9">
-        <v>1.062939022123413</v>
+        <v>1.061751956805345</v>
       </c>
       <c r="F23" t="n" s="8">
-        <v>551622.0</v>
+        <v>555051.0</v>
       </c>
       <c r="G23" t="n" s="9">
-        <v>1.114395960972727</v>
+        <v>1.1130771438979248</v>
       </c>
       <c r="H23" t="n" s="10">
-        <v>59134.0</v>
+        <v>59622.0</v>
       </c>
       <c r="I23" t="n" s="10">
-        <v>59423.0</v>
+        <v>59898.0</v>
       </c>
       <c r="J23" t="n" s="10">
-        <v>71892.0</v>
+        <v>72368.0</v>
       </c>
     </row>
     <row r="24">
@@ -1261,31 +1261,31 @@
         <v>40</v>
       </c>
       <c r="B24" t="n" s="6">
-        <v>509711.0</v>
+        <v>510866.0</v>
       </c>
       <c r="C24" t="n" s="7">
-        <v>1.029726660037797</v>
+        <v>1.0244703066827323</v>
       </c>
       <c r="D24" t="n" s="6">
-        <v>1029459.0</v>
+        <v>1032515.0</v>
       </c>
       <c r="E24" t="n" s="7">
-        <v>2.079730234811198</v>
+        <v>2.0705644116158077</v>
       </c>
       <c r="F24" t="n" s="6">
-        <v>534410.0</v>
+        <v>536391.0</v>
       </c>
       <c r="G24" t="n" s="7">
-        <v>1.079623991616424</v>
+        <v>1.0756571239265433</v>
       </c>
       <c r="H24" t="n" s="6">
-        <v>32723.0</v>
+        <v>32993.0</v>
       </c>
       <c r="I24" t="n" s="6">
-        <v>102964.0</v>
+        <v>103688.0</v>
       </c>
       <c r="J24" t="n" s="6">
-        <v>39552.0</v>
+        <v>39973.0</v>
       </c>
     </row>
     <row r="25">
@@ -1293,31 +1293,31 @@
         <v>41</v>
       </c>
       <c r="B25" t="n" s="8">
-        <v>897342.0</v>
+        <v>905609.0</v>
       </c>
       <c r="C25" t="n" s="9">
-        <v>1.8128252687731616</v>
+        <v>1.816072179328126</v>
       </c>
       <c r="D25" t="n" s="8">
-        <v>632745.0</v>
+        <v>638083.0</v>
       </c>
       <c r="E25" t="n" s="9">
-        <v>1.2782819980451978</v>
+        <v>1.279586205969937</v>
       </c>
       <c r="F25" t="n" s="8">
-        <v>731211.0</v>
+        <v>736479.0</v>
       </c>
       <c r="G25" t="n" s="9">
-        <v>1.4772046528579874</v>
+        <v>1.4769056210344629</v>
       </c>
       <c r="H25" t="n" s="10">
-        <v>82816.0</v>
+        <v>83489.0</v>
       </c>
       <c r="I25" t="n" s="10">
-        <v>29980.0</v>
+        <v>30212.0</v>
       </c>
       <c r="J25" t="n" s="10">
-        <v>49371.0</v>
+        <v>49634.0</v>
       </c>
     </row>
     <row r="26">
@@ -1325,31 +1325,31 @@
         <v>42</v>
       </c>
       <c r="B26" t="n" s="6">
-        <v>434039.0</v>
+        <v>436518.0</v>
       </c>
       <c r="C26" t="n" s="7">
-        <v>0.8768528240437138</v>
+        <v>0.8753757919543147</v>
       </c>
       <c r="D26" t="n" s="6">
-        <v>697762.0</v>
+        <v>701155.0</v>
       </c>
       <c r="E26" t="n" s="7">
-        <v>1.409630425400459</v>
+        <v>1.406068279905359</v>
       </c>
       <c r="F26" t="n" s="6">
-        <v>1422761.0</v>
+        <v>1427705.0</v>
       </c>
       <c r="G26" t="n" s="7">
-        <v>2.874285492292762</v>
+        <v>2.8630626802380084</v>
       </c>
       <c r="H26" t="n" s="6">
-        <v>28586.0</v>
+        <v>28815.0</v>
       </c>
       <c r="I26" t="n" s="6">
-        <v>35519.0</v>
+        <v>35837.0</v>
       </c>
       <c r="J26" t="n" s="6">
-        <v>100926.0</v>
+        <v>101600.0</v>
       </c>
     </row>
     <row r="27">
@@ -1357,31 +1357,31 @@
         <v>43</v>
       </c>
       <c r="B27" t="n" s="8">
-        <v>693191.0</v>
+        <v>695697.0</v>
       </c>
       <c r="C27" t="n" s="9">
-        <v>1.400396014993321</v>
+        <v>1.3951230243317363</v>
       </c>
       <c r="D27" t="n" s="8">
-        <v>634204.0</v>
+        <v>635762.0</v>
       </c>
       <c r="E27" t="n" s="9">
-        <v>1.2812294941694626</v>
+        <v>1.2749317651149759</v>
       </c>
       <c r="F27" t="n" s="8">
-        <v>955565.0</v>
+        <v>958608.0</v>
       </c>
       <c r="G27" t="n" s="9">
-        <v>1.9304483440597073</v>
+        <v>1.9223542607034343</v>
       </c>
       <c r="H27" t="n" s="10">
-        <v>51710.0</v>
+        <v>52196.0</v>
       </c>
       <c r="I27" t="n" s="10">
-        <v>39410.0</v>
+        <v>39681.0</v>
       </c>
       <c r="J27" t="n" s="10">
-        <v>81461.0</v>
+        <v>82050.0</v>
       </c>
     </row>
     <row r="28">
@@ -1389,31 +1389,31 @@
         <v>44</v>
       </c>
       <c r="B28" t="n" s="6">
-        <v>413143.0</v>
+        <v>414208.0</v>
       </c>
       <c r="C28" t="n" s="7">
-        <v>0.8346383764682253</v>
+        <v>0.8306362075190776</v>
       </c>
       <c r="D28" t="n" s="6">
-        <v>812338.0</v>
+        <v>814705.0</v>
       </c>
       <c r="E28" t="n" s="7">
-        <v>1.6410987707971458</v>
+        <v>1.6337769223357113</v>
       </c>
       <c r="F28" t="n" s="6">
-        <v>844850.0</v>
+        <v>847755.0</v>
       </c>
       <c r="G28" t="n" s="7">
-        <v>1.7067800552331278</v>
+        <v>1.700054074535827</v>
       </c>
       <c r="H28" t="n" s="6">
-        <v>27294.0</v>
+        <v>27534.0</v>
       </c>
       <c r="I28" t="n" s="6">
-        <v>71273.0</v>
+        <v>71801.0</v>
       </c>
       <c r="J28" t="n" s="6">
-        <v>74170.0</v>
+        <v>74772.0</v>
       </c>
     </row>
     <row r="29">
@@ -1421,31 +1421,31 @@
         <v>45</v>
       </c>
       <c r="B29" t="n" s="8">
-        <v>604181.0</v>
+        <v>608906.0</v>
       </c>
       <c r="C29" t="n" s="9">
-        <v>1.220576529029776</v>
+        <v>1.2210758135420166</v>
       </c>
       <c r="D29" t="n" s="8">
-        <v>348117.0</v>
+        <v>349931.0</v>
       </c>
       <c r="E29" t="n" s="9">
-        <v>0.7032717671629174</v>
+        <v>0.70173767463052</v>
       </c>
       <c r="F29" t="n" s="8">
-        <v>744137.0</v>
+        <v>747179.0</v>
       </c>
       <c r="G29" t="n" s="9">
-        <v>1.5033179735586366</v>
+        <v>1.4983629743942584</v>
       </c>
       <c r="H29" t="n" s="10">
-        <v>71313.0</v>
+        <v>71977.0</v>
       </c>
       <c r="I29" t="n" s="10">
-        <v>21915.0</v>
+        <v>22072.0</v>
       </c>
       <c r="J29" t="n" s="10">
-        <v>75069.0</v>
+        <v>75486.0</v>
       </c>
     </row>
     <row r="30">
@@ -1453,31 +1453,31 @@
         <v>46</v>
       </c>
       <c r="B30" t="n" s="6">
-        <v>530276.0</v>
+        <v>536246.0</v>
       </c>
       <c r="C30" t="n" s="7">
-        <v>1.0712724158948952</v>
+        <v>1.0753663467081163</v>
       </c>
       <c r="D30" t="n" s="6">
-        <v>851054.0</v>
+        <v>860257.0</v>
       </c>
       <c r="E30" t="n" s="7">
-        <v>1.7193134794654368</v>
+        <v>1.7251250868446268</v>
       </c>
       <c r="F30" t="n" s="6">
-        <v>485820.0</v>
+        <v>490187.0</v>
       </c>
       <c r="G30" t="n" s="7">
-        <v>0.9814616635300446</v>
+        <v>0.9830014646147689</v>
       </c>
       <c r="H30" t="n" s="6">
-        <v>36657.0</v>
+        <v>36953.0</v>
       </c>
       <c r="I30" t="n" s="6">
-        <v>81126.0</v>
+        <v>81868.0</v>
       </c>
       <c r="J30" t="n" s="6">
-        <v>47862.0</v>
+        <v>47994.0</v>
       </c>
     </row>
     <row r="31">
@@ -1485,31 +1485,31 @@
         <v>47</v>
       </c>
       <c r="B31" t="n" s="8">
-        <v>926543.0</v>
+        <v>932536.0</v>
       </c>
       <c r="C31" t="n" s="9">
-        <v>1.8718176158085673</v>
+        <v>1.8700705114701084</v>
       </c>
       <c r="D31" t="n" s="8">
-        <v>992335.0</v>
+        <v>1001192.0</v>
       </c>
       <c r="E31" t="n" s="9">
-        <v>2.004731711084531</v>
+        <v>2.007750516355166</v>
       </c>
       <c r="F31" t="n" s="8">
-        <v>683355.0</v>
+        <v>689178.0</v>
       </c>
       <c r="G31" t="n" s="9">
-        <v>1.3805251638087637</v>
+        <v>1.382050081663278</v>
       </c>
       <c r="H31" t="n" s="10">
-        <v>52217.0</v>
+        <v>52474.0</v>
       </c>
       <c r="I31" t="n" s="10">
-        <v>83686.0</v>
+        <v>84437.0</v>
       </c>
       <c r="J31" t="n" s="10">
-        <v>25148.0</v>
+        <v>25353.0</v>
       </c>
     </row>
     <row r="32">
@@ -1517,31 +1517,31 @@
         <v>48</v>
       </c>
       <c r="B32" t="n" s="6">
-        <v>932954.0</v>
+        <v>936203.0</v>
       </c>
       <c r="C32" t="n" s="7">
-        <v>1.8847692248919543</v>
+        <v>1.8774241670561242</v>
       </c>
       <c r="D32" t="n" s="6">
-        <v>1120918.0</v>
+        <v>1130910.0</v>
       </c>
       <c r="E32" t="n" s="7">
-        <v>2.2644972314041634</v>
+        <v>2.2678818213202065</v>
       </c>
       <c r="F32" t="n" s="6">
-        <v>389786.0</v>
+        <v>392136.0</v>
       </c>
       <c r="G32" t="n" s="7">
-        <v>0.7874521756632539</v>
+        <v>0.7863738987940867</v>
       </c>
       <c r="H32" t="n" s="6">
-        <v>50413.0</v>
+        <v>50548.0</v>
       </c>
       <c r="I32" t="n" s="6">
-        <v>92337.0</v>
+        <v>93256.0</v>
       </c>
       <c r="J32" t="n" s="6">
-        <v>11035.0</v>
+        <v>11151.0</v>
       </c>
     </row>
     <row r="33">
@@ -1549,31 +1549,31 @@
         <v>49</v>
       </c>
       <c r="B33" t="n" s="8">
-        <v>956778.0</v>
+        <v>966351.0</v>
       </c>
       <c r="C33" t="n" s="9">
-        <v>1.9328988668826912</v>
+        <v>1.9378817641674433</v>
       </c>
       <c r="D33" t="n" s="8">
-        <v>1075655.0</v>
+        <v>1084639.0</v>
       </c>
       <c r="E33" t="n" s="9">
-        <v>2.17305616418511</v>
+        <v>2.1750918028799178</v>
       </c>
       <c r="F33" t="n" s="8">
-        <v>937326.0</v>
+        <v>945331.0</v>
       </c>
       <c r="G33" t="n" s="9">
-        <v>1.8936016121813892</v>
+        <v>1.8957290942961442</v>
       </c>
       <c r="H33" t="n" s="10">
-        <v>47223.0</v>
+        <v>47736.0</v>
       </c>
       <c r="I33" t="n" s="10">
-        <v>64600.0</v>
+        <v>65018.0</v>
       </c>
       <c r="J33" t="n" s="10">
-        <v>50570.0</v>
+        <v>50847.0</v>
       </c>
     </row>
     <row r="34">
@@ -1581,31 +1581,31 @@
         <v>50</v>
       </c>
       <c r="B34" t="n" s="6">
-        <v>1957993.0</v>
+        <v>1973681.0</v>
       </c>
       <c r="C34" t="n" s="7">
-        <v>3.955570102013467</v>
+        <v>3.9579411809826484</v>
       </c>
       <c r="D34" t="n" s="6">
-        <v>535603.0</v>
+        <v>540729.0</v>
       </c>
       <c r="E34" t="n" s="7">
-        <v>1.0820341101059703</v>
+        <v>1.0843563761578323</v>
       </c>
       <c r="F34" t="n" s="6">
-        <v>1038643.0</v>
+        <v>1046305.0</v>
       </c>
       <c r="G34" t="n" s="7">
-        <v>2.098283904725693</v>
+        <v>2.0982183277682918</v>
       </c>
       <c r="H34" t="n" s="6">
-        <v>112193.0</v>
+        <v>113045.0</v>
       </c>
       <c r="I34" t="n" s="6">
-        <v>7994.0</v>
+        <v>8081.0</v>
       </c>
       <c r="J34" t="n" s="6">
-        <v>30878.0</v>
+        <v>31040.0</v>
       </c>
     </row>
     <row r="35">
@@ -1613,31 +1613,31 @@
         <v>51</v>
       </c>
       <c r="B35" t="n" s="8">
-        <v>879693.0</v>
+        <v>884098.0</v>
       </c>
       <c r="C35" t="n" s="9">
-        <v>1.7771704647312492</v>
+        <v>1.772934877634429</v>
       </c>
       <c r="D35" t="n" s="8">
-        <v>304202.0</v>
+        <v>306357.0</v>
       </c>
       <c r="E35" t="n" s="9">
-        <v>0.6145539520175509</v>
+        <v>0.6143561124529756</v>
       </c>
       <c r="F35" t="n" s="8">
-        <v>612147.0</v>
+        <v>615616.0</v>
       </c>
       <c r="G35" t="n" s="9">
-        <v>1.236669575037928</v>
+        <v>1.234531779994748</v>
       </c>
       <c r="H35" t="n" s="10">
-        <v>88494.0</v>
+        <v>89097.0</v>
       </c>
       <c r="I35" t="n" s="10">
-        <v>27245.0</v>
+        <v>27471.0</v>
       </c>
       <c r="J35" t="n" s="10">
-        <v>54241.0</v>
+        <v>54684.0</v>
       </c>
     </row>
     <row r="36">
@@ -1645,31 +1645,31 @@
         <v>52</v>
       </c>
       <c r="B36" t="n" s="6">
-        <v>1231304.0</v>
+        <v>1239969.0</v>
       </c>
       <c r="C36" t="n" s="7">
-        <v>2.487500868945696</v>
+        <v>2.486584391419826</v>
       </c>
       <c r="D36" t="n" s="6">
-        <v>753653.0</v>
+        <v>760092.0</v>
       </c>
       <c r="E36" t="n" s="7">
-        <v>1.5225423554081938</v>
+        <v>1.52425818971529</v>
       </c>
       <c r="F36" t="n" s="6">
-        <v>347231.0</v>
+        <v>349797.0</v>
       </c>
       <c r="G36" t="n" s="7">
-        <v>0.7014818551916366</v>
+        <v>0.7014689563734907</v>
       </c>
       <c r="H36" t="n" s="6">
-        <v>97948.0</v>
+        <v>98621.0</v>
       </c>
       <c r="I36" t="n" s="6">
-        <v>49283.0</v>
+        <v>49721.0</v>
       </c>
       <c r="J36" t="n" s="6">
-        <v>11504.0</v>
+        <v>11576.0</v>
       </c>
     </row>
     <row r="37">
@@ -1677,31 +1677,31 @@
         <v>53</v>
       </c>
       <c r="B37" t="n" s="8">
-        <v>1543917.0</v>
+        <v>1555853.0</v>
       </c>
       <c r="C37" t="n" s="9">
-        <v>3.119046863390383</v>
+        <v>3.1200455698035277</v>
       </c>
       <c r="D37" t="n" s="8">
-        <v>357014.0</v>
+        <v>359968.0</v>
       </c>
       <c r="E37" t="n" s="9">
-        <v>0.7212456348925844</v>
+        <v>0.7218654742260588</v>
       </c>
       <c r="F37" t="n" s="8">
-        <v>1103122.0</v>
+        <v>1110117.0</v>
       </c>
       <c r="G37" t="n" s="9">
-        <v>2.2285454555114854</v>
+        <v>2.226184368197756</v>
       </c>
       <c r="H37" t="n" s="10">
-        <v>97365.0</v>
+        <v>98167.0</v>
       </c>
       <c r="I37" t="n" s="10">
-        <v>6142.0</v>
+        <v>6198.0</v>
       </c>
       <c r="J37" t="n" s="10">
-        <v>51208.0</v>
+        <v>51480.0</v>
       </c>
     </row>
     <row r="38">
@@ -1709,31 +1709,31 @@
         <v>54</v>
       </c>
       <c r="B38" t="n" s="6">
-        <v>871833.0</v>
+        <v>879231.0</v>
       </c>
       <c r="C38" t="n" s="7">
-        <v>1.761291561690316</v>
+        <v>1.763174789895913</v>
       </c>
       <c r="D38" t="n" s="6">
-        <v>613992.0</v>
+        <v>617472.0</v>
       </c>
       <c r="E38" t="n" s="7">
-        <v>1.2403968747975362</v>
+        <v>1.2382537283906152</v>
       </c>
       <c r="F38" t="n" s="6">
-        <v>815455.0</v>
+        <v>819851.0</v>
       </c>
       <c r="G38" t="n" s="7">
-        <v>1.6473957861633786</v>
+        <v>1.644096505549684</v>
       </c>
       <c r="H38" t="n" s="6">
-        <v>72845.0</v>
+        <v>73569.0</v>
       </c>
       <c r="I38" t="n" s="6">
-        <v>34634.0</v>
+        <v>34821.0</v>
       </c>
       <c r="J38" t="n" s="6">
-        <v>56580.0</v>
+        <v>56862.0</v>
       </c>
     </row>
     <row r="39">
@@ -1741,31 +1741,31 @@
         <v>55</v>
       </c>
       <c r="B39" t="n" s="8">
-        <v>1064089.0</v>
+        <v>1068241.0</v>
       </c>
       <c r="C39" t="n" s="9">
-        <v>2.14969033815821</v>
+        <v>2.1422079075159997</v>
       </c>
       <c r="D39" t="n" s="8">
-        <v>510027.0</v>
+        <v>512363.0</v>
       </c>
       <c r="E39" t="n" s="9">
-        <v>1.0303650485061093</v>
+        <v>1.0274723307929767</v>
       </c>
       <c r="F39" t="n" s="8">
-        <v>528622.0</v>
+        <v>530802.0</v>
       </c>
       <c r="G39" t="n" s="9">
-        <v>1.0679309775196146</v>
+        <v>1.0644491661762725</v>
       </c>
       <c r="H39" t="n" s="10">
-        <v>101149.0</v>
+        <v>101845.0</v>
       </c>
       <c r="I39" t="n" s="10">
-        <v>32551.0</v>
+        <v>32879.0</v>
       </c>
       <c r="J39" t="n" s="10">
-        <v>35583.0</v>
+        <v>35869.0</v>
       </c>
     </row>
     <row r="40">
@@ -1773,31 +1773,31 @@
         <v>56</v>
       </c>
       <c r="B40" t="n" s="6">
-        <v>891032.0</v>
+        <v>893956.0</v>
       </c>
       <c r="C40" t="n" s="7">
-        <v>1.8000777015736336</v>
+        <v>1.79270371776722</v>
       </c>
       <c r="D40" t="n" s="6">
-        <v>810247.0</v>
+        <v>812567.0</v>
       </c>
       <c r="E40" t="n" s="7">
-        <v>1.6368744977362564</v>
+        <v>1.6294894623840064</v>
       </c>
       <c r="F40" t="n" s="6">
-        <v>547324.0</v>
+        <v>549220.0</v>
       </c>
       <c r="G40" t="n" s="7">
-        <v>1.1057130697170106</v>
+        <v>1.1013838889968997</v>
       </c>
       <c r="H40" t="n" s="6">
-        <v>73081.0</v>
+        <v>73641.0</v>
       </c>
       <c r="I40" t="n" s="6">
-        <v>65238.0</v>
+        <v>65674.0</v>
       </c>
       <c r="J40" t="n" s="6">
-        <v>36064.0</v>
+        <v>36396.0</v>
       </c>
     </row>
     <row r="41">
@@ -1805,31 +1805,31 @@
         <v>57</v>
       </c>
       <c r="B41" t="n" s="8">
-        <v>1373247.0</v>
+        <v>1384261.0</v>
       </c>
       <c r="C41" t="n" s="9">
-        <v>2.7742564840015707</v>
+        <v>2.775941814876985</v>
       </c>
       <c r="D41" t="n" s="8">
-        <v>527914.0</v>
+        <v>531389.0</v>
       </c>
       <c r="E41" t="n" s="9">
-        <v>1.0665006641159276</v>
+        <v>1.0656263125708707</v>
       </c>
       <c r="F41" t="n" s="8">
-        <v>954361.0</v>
+        <v>958770.0</v>
       </c>
       <c r="G41" t="n" s="9">
-        <v>1.9280160031867708</v>
+        <v>1.9226791290440217</v>
       </c>
       <c r="H41" t="n" s="10">
-        <v>95675.0</v>
+        <v>96577.0</v>
       </c>
       <c r="I41" t="n" s="10">
-        <v>11841.0</v>
+        <v>11933.0</v>
       </c>
       <c r="J41" t="n" s="10">
-        <v>45738.0</v>
+        <v>45879.0</v>
       </c>
     </row>
     <row r="42">
@@ -1837,31 +1837,31 @@
         <v>58</v>
       </c>
       <c r="B42" t="n" s="6">
-        <v>1129293.0</v>
+        <v>1139533.0</v>
       </c>
       <c r="C42" t="n" s="7">
-        <v>2.2814165460311115</v>
+        <v>2.2851740416960493</v>
       </c>
       <c r="D42" t="n" s="6">
-        <v>560988.0</v>
+        <v>564843.0</v>
       </c>
       <c r="E42" t="n" s="7">
-        <v>1.1333173103215033</v>
+        <v>1.1327136302623282</v>
       </c>
       <c r="F42" t="n" s="6">
-        <v>1094186.0</v>
+        <v>1100567.0</v>
       </c>
       <c r="G42" t="n" s="7">
-        <v>2.2104927993316155</v>
+        <v>2.2070331789841067</v>
       </c>
       <c r="H42" t="n" s="6">
-        <v>75153.0</v>
+        <v>75907.0</v>
       </c>
       <c r="I42" t="n" s="6">
-        <v>14760.0</v>
+        <v>14845.0</v>
       </c>
       <c r="J42" t="n" s="6">
-        <v>68348.0</v>
+        <v>68640.0</v>
       </c>
     </row>
     <row r="43">
@@ -1869,31 +1869,31 @@
         <v>59</v>
       </c>
       <c r="B43" t="n" s="8">
-        <v>899730.0</v>
+        <v>903338.0</v>
       </c>
       <c r="C43" t="n" s="9">
-        <v>1.8176495461855975</v>
+        <v>1.811518006479519</v>
       </c>
       <c r="D43" t="n" s="8">
-        <v>448202.0</v>
+        <v>449963.0</v>
       </c>
       <c r="E43" t="n" s="9">
-        <v>0.9054651527674715</v>
+        <v>0.9023378588629548</v>
       </c>
       <c r="F43" t="n" s="8">
-        <v>902147.0</v>
+        <v>905595.0</v>
       </c>
       <c r="G43" t="n" s="9">
-        <v>1.8225324098815183</v>
+        <v>1.8160441042863469</v>
       </c>
       <c r="H43" t="n" s="10">
-        <v>68152.0</v>
+        <v>68723.0</v>
       </c>
       <c r="I43" t="n" s="10">
-        <v>23893.0</v>
+        <v>24097.0</v>
       </c>
       <c r="J43" t="n" s="10">
-        <v>76612.0</v>
+        <v>77153.0</v>
       </c>
     </row>
     <row r="44">
@@ -1901,31 +1901,31 @@
         <v>60</v>
       </c>
       <c r="B44" t="n" s="6">
-        <v>725650.0</v>
+        <v>730038.0</v>
       </c>
       <c r="C44" t="n" s="7">
-        <v>1.4659702279456934</v>
+        <v>1.463989096455917</v>
       </c>
       <c r="D44" t="n" s="6">
-        <v>543541.0</v>
+        <v>546789.0</v>
       </c>
       <c r="E44" t="n" s="7">
-        <v>1.0980705900473096</v>
+        <v>1.0965088585279594</v>
       </c>
       <c r="F44" t="n" s="6">
-        <v>631763.0</v>
+        <v>635322.0</v>
       </c>
       <c r="G44" t="n" s="7">
-        <v>1.2762981452734172</v>
+        <v>1.274049406659059</v>
       </c>
       <c r="H44" t="n" s="6">
-        <v>82024.0</v>
+        <v>82650.0</v>
       </c>
       <c r="I44" t="n" s="6">
-        <v>42041.0</v>
+        <v>42361.0</v>
       </c>
       <c r="J44" t="n" s="6">
-        <v>58776.0</v>
+        <v>59184.0</v>
       </c>
     </row>
     <row r="45">
@@ -1933,31 +1933,31 @@
         <v>61</v>
       </c>
       <c r="B45" t="n" s="8">
-        <v>658160.0</v>
+        <v>663389.0</v>
       </c>
       <c r="C45" t="n" s="9">
-        <v>1.329625804760887</v>
+        <v>1.3303338493459167</v>
       </c>
       <c r="D45" t="n" s="8">
-        <v>304040.0</v>
+        <v>306063.0</v>
       </c>
       <c r="E45" t="n" s="9">
-        <v>0.6142266769167073</v>
+        <v>0.613766536575613</v>
       </c>
       <c r="F45" t="n" s="8">
-        <v>754028.0</v>
+        <v>757636.0</v>
       </c>
       <c r="G45" t="n" s="9">
-        <v>1.5232999366601467</v>
+        <v>1.5193330252431725</v>
       </c>
       <c r="H45" t="n" s="10">
-        <v>70480.0</v>
+        <v>71144.0</v>
       </c>
       <c r="I45" t="n" s="10">
-        <v>22608.0</v>
+        <v>22817.0</v>
       </c>
       <c r="J45" t="n" s="10">
-        <v>77594.0</v>
+        <v>78027.0</v>
       </c>
     </row>
     <row r="46">
@@ -1965,31 +1965,31 @@
         <v>62</v>
       </c>
       <c r="B46" t="n" s="6">
-        <v>598057.0</v>
+        <v>604083.0</v>
       </c>
       <c r="C46" t="n" s="7">
-        <v>1.208204722131217</v>
+        <v>1.211403961649092</v>
       </c>
       <c r="D46" t="n" s="6">
-        <v>444632.0</v>
+        <v>448809.0</v>
       </c>
       <c r="E46" t="n" s="7">
-        <v>0.8982529792488798</v>
+        <v>0.9000236732763003</v>
       </c>
       <c r="F46" t="n" s="6">
-        <v>266832.0</v>
+        <v>268741.0</v>
       </c>
       <c r="G46" t="n" s="7">
-        <v>0.5390584549896028</v>
+        <v>0.5389224859125957</v>
       </c>
       <c r="H46" t="n" s="6">
-        <v>86237.0</v>
+        <v>87009.0</v>
       </c>
       <c r="I46" t="n" s="6">
-        <v>51538.0</v>
+        <v>51896.0</v>
       </c>
       <c r="J46" t="n" s="6">
-        <v>40099.0</v>
+        <v>40210.0</v>
       </c>
     </row>
     <row r="47">
@@ -1997,31 +1997,31 @@
         <v>63</v>
       </c>
       <c r="B47" t="n" s="8">
-        <v>833270.0</v>
+        <v>838068.0</v>
       </c>
       <c r="C47" t="n" s="9">
-        <v>1.6833859461728218</v>
+        <v>1.680628150984767</v>
       </c>
       <c r="D47" t="n" s="8">
-        <v>459953.0</v>
+        <v>463630.0</v>
       </c>
       <c r="E47" t="n" s="9">
-        <v>0.9292047188786682</v>
+        <v>0.9297451157198074</v>
       </c>
       <c r="F47" t="n" s="8">
-        <v>379764.0</v>
+        <v>382023.0</v>
       </c>
       <c r="G47" t="n" s="9">
-        <v>0.7672055641777281</v>
+        <v>0.7660936918288894</v>
       </c>
       <c r="H47" t="n" s="10">
-        <v>91526.0</v>
+        <v>92191.0</v>
       </c>
       <c r="I47" t="n" s="10">
-        <v>47168.0</v>
+        <v>47545.0</v>
       </c>
       <c r="J47" t="n" s="10">
-        <v>30308.0</v>
+        <v>30500.0</v>
       </c>
     </row>
     <row r="48">
@@ -2029,31 +2029,31 @@
         <v>64</v>
       </c>
       <c r="B48" t="n" s="6">
-        <v>857397.0</v>
+        <v>861599.0</v>
       </c>
       <c r="C48" t="n" s="7">
-        <v>1.7321277138151365</v>
+        <v>1.7278162801351735</v>
       </c>
       <c r="D48" t="n" s="6">
-        <v>647784.0</v>
+        <v>653243.0</v>
       </c>
       <c r="E48" t="n" s="7">
-        <v>1.3086640365735178</v>
+        <v>1.3099874654965256</v>
       </c>
       <c r="F48" t="n" s="6">
-        <v>219519.0</v>
+        <v>220946.0</v>
       </c>
       <c r="G48" t="n" s="7">
-        <v>0.4434759435932071</v>
+        <v>0.4430762986386312</v>
       </c>
       <c r="H48" t="n" s="6">
-        <v>87812.0</v>
+        <v>88280.0</v>
       </c>
       <c r="I48" t="n" s="6">
-        <v>66553.0</v>
+        <v>67238.0</v>
       </c>
       <c r="J48" t="n" s="6">
-        <v>12931.0</v>
+        <v>13033.0</v>
       </c>
     </row>
     <row r="49">
@@ -2061,31 +2061,31 @@
         <v>65</v>
       </c>
       <c r="B49" t="n" s="8">
-        <v>954914.0</v>
+        <v>962333.0</v>
       </c>
       <c r="C49" t="n" s="9">
-        <v>1.9291331830063172</v>
+        <v>1.929824227176821</v>
       </c>
       <c r="D49" t="n" s="8">
-        <v>540692.0</v>
+        <v>545272.0</v>
       </c>
       <c r="E49" t="n" s="9">
-        <v>1.0923149927491393</v>
+        <v>1.0934667272151735</v>
       </c>
       <c r="F49" t="n" s="8">
-        <v>833569.0</v>
+        <v>838630.0</v>
       </c>
       <c r="G49" t="n" s="9">
-        <v>1.683989990957712</v>
+        <v>1.6817551633761882</v>
       </c>
       <c r="H49" t="n" s="10">
-        <v>82401.0</v>
+        <v>83082.0</v>
       </c>
       <c r="I49" t="n" s="10">
-        <v>22109.0</v>
+        <v>22348.0</v>
       </c>
       <c r="J49" t="n" s="10">
-        <v>58643.0</v>
+        <v>58939.0</v>
       </c>
     </row>
     <row r="50">
@@ -2096,28 +2096,28 @@
         <v>181.0</v>
       </c>
       <c r="C50" t="n" s="7">
-        <v>3.656592176092752E-4</v>
+        <v>3.629701830021464E-4</v>
       </c>
       <c r="D50" t="n" s="6">
-        <v>589657.0</v>
+        <v>596487.0</v>
       </c>
       <c r="E50" t="n" s="7">
-        <v>1.1912349020874717</v>
+        <v>1.1961712461237644</v>
       </c>
       <c r="F50" t="n" s="6">
-        <v>999927.0</v>
+        <v>1010516.0</v>
       </c>
       <c r="G50" t="n" s="7">
-        <v>2.0200691960574018</v>
+        <v>2.026448494180094</v>
       </c>
       <c r="H50" t="n" s="6">
         <v>14065.0</v>
       </c>
       <c r="I50" t="n" s="6">
-        <v>51602.0</v>
+        <v>51930.0</v>
       </c>
       <c r="J50" t="n" s="6">
-        <v>115957.0</v>
+        <v>116737.0</v>
       </c>
     </row>
     <row r="51">
@@ -2125,31 +2125,31 @@
         <v>67</v>
       </c>
       <c r="B51" t="n" s="8">
-        <v>576157.0</v>
+        <v>579891.0</v>
       </c>
       <c r="C51" t="n" s="9">
-        <v>1.1639619770171667</v>
+        <v>1.1628902894546833</v>
       </c>
       <c r="D51" t="n" s="8">
-        <v>446038.0</v>
+        <v>450499.0</v>
       </c>
       <c r="E51" t="n" s="9">
-        <v>0.9010934038895352</v>
+        <v>0.9034127318910716</v>
       </c>
       <c r="F51" t="n" s="8">
-        <v>620133.0</v>
+        <v>627055.0</v>
       </c>
       <c r="G51" t="n" s="9">
-        <v>1.2528030253795173</v>
+        <v>1.2574710944884582</v>
       </c>
       <c r="H51" t="n" s="10">
-        <v>63345.0</v>
+        <v>63566.0</v>
       </c>
       <c r="I51" t="n" s="10">
-        <v>44116.0</v>
+        <v>44438.0</v>
       </c>
       <c r="J51" t="n" s="10">
-        <v>67660.0</v>
+        <v>68332.0</v>
       </c>
     </row>
     <row r="52">
@@ -2160,28 +2160,28 @@
         <v>143.0</v>
       </c>
       <c r="C52" t="n" s="7">
-        <v>2.8889098407804614E-4</v>
+        <v>2.867664981729665E-4</v>
       </c>
       <c r="D52" t="n" s="6">
-        <v>1101133.0</v>
+        <v>1112826.0</v>
       </c>
       <c r="E52" t="n" s="7">
-        <v>2.224527244551127</v>
+        <v>2.2316168887820256</v>
       </c>
       <c r="F52" t="n" s="6">
-        <v>371868.0</v>
+        <v>375896.0</v>
       </c>
       <c r="G52" t="n" s="7">
-        <v>0.7512539333366075</v>
+        <v>0.7538068503302477</v>
       </c>
       <c r="H52" t="n" s="6">
-        <v>18075.0</v>
+        <v>18081.0</v>
       </c>
       <c r="I52" t="n" s="6">
-        <v>126250.0</v>
+        <v>127221.0</v>
       </c>
       <c r="J52" t="n" s="6">
-        <v>39585.0</v>
+        <v>39693.0</v>
       </c>
     </row>
     <row r="53">
@@ -2189,31 +2189,31 @@
         <v>69</v>
       </c>
       <c r="B53" t="n" s="8">
-        <v>857583.0</v>
+        <v>865930.0</v>
       </c>
       <c r="C53" t="n" s="9">
-        <v>1.7325034741161052</v>
+        <v>1.7365014948455728</v>
       </c>
       <c r="D53" t="n" s="8">
-        <v>548956.0</v>
+        <v>553895.0</v>
       </c>
       <c r="E53" t="n" s="9">
-        <v>1.1090100633255098</v>
+        <v>1.110758947591016</v>
       </c>
       <c r="F53" t="n" s="8">
-        <v>1090862.0</v>
+        <v>1101663.0</v>
       </c>
       <c r="G53" t="n" s="9">
-        <v>2.203777599114305</v>
+        <v>2.2092310536833906</v>
       </c>
       <c r="H53" t="n" s="10">
-        <v>63324.0</v>
+        <v>63670.0</v>
       </c>
       <c r="I53" t="n" s="10">
-        <v>21928.0</v>
+        <v>22033.0</v>
       </c>
       <c r="J53" t="n" s="10">
-        <v>86478.0</v>
+        <v>87168.0</v>
       </c>
     </row>
     <row r="54">
@@ -2221,31 +2221,31 @@
         <v>70</v>
       </c>
       <c r="B54" t="n" s="6">
-        <v>433570.0</v>
+        <v>437891.0</v>
       </c>
       <c r="C54" t="n" s="7">
-        <v>0.8759053424246047</v>
+        <v>0.8781291514088007</v>
       </c>
       <c r="D54" t="n" s="6">
-        <v>980125.0</v>
+        <v>986797.0</v>
       </c>
       <c r="E54" t="n" s="7">
-        <v>1.9800648655209439</v>
+        <v>1.978883357325796</v>
       </c>
       <c r="F54" t="n" s="6">
-        <v>979791.0</v>
+        <v>988044.0</v>
       </c>
       <c r="G54" t="n" s="7">
-        <v>1.9793901131525375</v>
+        <v>1.9813840414042696</v>
       </c>
       <c r="H54" t="n" s="6">
-        <v>15356.0</v>
+        <v>15506.0</v>
       </c>
       <c r="I54" t="n" s="6">
-        <v>66337.0</v>
+        <v>66717.0</v>
       </c>
       <c r="J54" t="n" s="6">
-        <v>77149.0</v>
+        <v>77803.0</v>
       </c>
     </row>
     <row r="55">
@@ -2253,31 +2253,31 @@
         <v>71</v>
       </c>
       <c r="B55" t="n" s="8">
-        <v>609040.0</v>
+        <v>613120.0</v>
       </c>
       <c r="C55" t="n" s="9">
-        <v>1.2303927618384143</v>
+        <v>1.229526401117547</v>
       </c>
       <c r="D55" t="n" s="8">
-        <v>814129.0</v>
+        <v>819885.0</v>
       </c>
       <c r="E55" t="n" s="9">
-        <v>1.6447169788564728</v>
+        <v>1.6441646877940044</v>
       </c>
       <c r="F55" t="n" s="8">
-        <v>938563.0</v>
+        <v>946478.0</v>
       </c>
       <c r="G55" t="n" s="9">
-        <v>1.896100620204498</v>
+        <v>1.898029242361909</v>
       </c>
       <c r="H55" t="n" s="10">
-        <v>30846.0</v>
+        <v>30995.0</v>
       </c>
       <c r="I55" t="n" s="10">
-        <v>55239.0</v>
+        <v>55584.0</v>
       </c>
       <c r="J55" t="n" s="10">
-        <v>79570.0</v>
+        <v>80274.0</v>
       </c>
     </row>
     <row r="56">
@@ -2285,31 +2285,31 @@
         <v>72</v>
       </c>
       <c r="B56" t="n" s="6">
-        <v>517361.0</v>
+        <v>519580.0</v>
       </c>
       <c r="C56" t="n" s="7">
-        <v>1.0451813175776365</v>
+        <v>1.0419450148301395</v>
       </c>
       <c r="D56" t="n" s="6">
-        <v>1297574.0</v>
+        <v>1302258.0</v>
       </c>
       <c r="E56" t="n" s="7">
-        <v>2.6213806277908156</v>
+        <v>2.6114962683757414</v>
       </c>
       <c r="F56" t="n" s="6">
-        <v>660387.0</v>
+        <v>664441.0</v>
       </c>
       <c r="G56" t="n" s="7">
-        <v>1.3341248272891515</v>
+        <v>1.3324434881996088</v>
       </c>
       <c r="H56" t="n" s="6">
-        <v>18038.0</v>
+        <v>18218.0</v>
       </c>
       <c r="I56" t="n" s="6">
-        <v>92891.0</v>
+        <v>93464.0</v>
       </c>
       <c r="J56" t="n" s="6">
-        <v>51176.0</v>
+        <v>51680.0</v>
       </c>
     </row>
     <row r="57">
@@ -2317,31 +2317,31 @@
         <v>73</v>
       </c>
       <c r="B57" t="n" s="8">
-        <v>1121037.0</v>
+        <v>1132216.0</v>
       </c>
       <c r="C57" t="n" s="9">
-        <v>2.2647376371881163</v>
+        <v>2.270500821646178</v>
       </c>
       <c r="D57" t="n" s="8">
-        <v>815113.0</v>
+        <v>822755.0</v>
       </c>
       <c r="E57" t="n" s="9">
-        <v>1.6467048720615975</v>
+        <v>1.6499200713587348</v>
       </c>
       <c r="F57" t="n" s="8">
-        <v>1084181.0</v>
+        <v>1094389.0</v>
       </c>
       <c r="G57" t="n" s="9">
-        <v>2.1902805315295115</v>
+        <v>2.1946440641189833</v>
       </c>
       <c r="H57" t="n" s="10">
-        <v>65167.0</v>
+        <v>65714.0</v>
       </c>
       <c r="I57" t="n" s="10">
-        <v>36092.0</v>
+        <v>36262.0</v>
       </c>
       <c r="J57" t="n" s="10">
-        <v>57608.0</v>
+        <v>58061.0</v>
       </c>
     </row>
     <row r="58">
@@ -2352,28 +2352,28 @@
         <v>114.0</v>
       </c>
       <c r="C58" t="n" s="7">
-        <v>2.3030470059368715E-4</v>
+        <v>2.2861105448753973E-4</v>
       </c>
       <c r="D58" t="n" s="6">
-        <v>1027104.0</v>
+        <v>1033821.0</v>
       </c>
       <c r="E58" t="n" s="7">
-        <v>2.0749726245489337</v>
+        <v>2.073183411941779</v>
       </c>
       <c r="F58" t="n" s="6">
-        <v>1290144.0</v>
+        <v>1301658.0</v>
       </c>
       <c r="G58" t="n" s="7">
-        <v>2.6063704179187885</v>
+        <v>2.6102930522994914</v>
       </c>
       <c r="H58" t="n" s="6">
-        <v>579.0</v>
+        <v>583.0</v>
       </c>
       <c r="I58" t="n" s="6">
-        <v>62380.0</v>
+        <v>62672.0</v>
       </c>
       <c r="J58" t="n" s="6">
-        <v>89463.0</v>
+        <v>90271.0</v>
       </c>
     </row>
     <row r="59">
@@ -2381,31 +2381,31 @@
         <v>75</v>
       </c>
       <c r="B59" t="n" s="8">
-        <v>326732.0</v>
+        <v>328878.0</v>
       </c>
       <c r="C59" t="n" s="9">
-        <v>0.6600694336348824</v>
+        <v>0.6595188278750271</v>
       </c>
       <c r="D59" t="n" s="8">
-        <v>954823.0</v>
+        <v>959336.0</v>
       </c>
       <c r="E59" t="n" s="9">
-        <v>1.9289493432891764</v>
+        <v>1.923814162875951</v>
       </c>
       <c r="F59" t="n" s="8">
-        <v>1195890.0</v>
+        <v>1205869.0</v>
       </c>
       <c r="G59" t="n" s="9">
-        <v>2.415956915727934</v>
+        <v>2.4182016110862725</v>
       </c>
       <c r="H59" t="n" s="10">
-        <v>9820.0</v>
+        <v>9900.0</v>
       </c>
       <c r="I59" t="n" s="10">
-        <v>53138.0</v>
+        <v>53351.0</v>
       </c>
       <c r="J59" t="n" s="10">
-        <v>93515.0</v>
+        <v>94382.0</v>
       </c>
     </row>
     <row r="60">
@@ -2413,31 +2413,31 @@
         <v>76</v>
       </c>
       <c r="B60" t="n" s="6">
-        <v>573505.0</v>
+        <v>577350.0</v>
       </c>
       <c r="C60" t="n" s="7">
-        <v>1.1586043624033557</v>
+        <v>1.1577946693717638</v>
       </c>
       <c r="D60" t="n" s="6">
-        <v>1156073.0</v>
+        <v>1161616.0</v>
       </c>
       <c r="E60" t="n" s="7">
-        <v>2.335517948503909</v>
+        <v>2.3294584093824384</v>
       </c>
       <c r="F60" t="n" s="6">
-        <v>914085.0</v>
+        <v>921426.0</v>
       </c>
       <c r="G60" t="n" s="7">
-        <v>1.8466497565103552</v>
+        <v>1.8477909604582086</v>
       </c>
       <c r="H60" t="n" s="6">
-        <v>20766.0</v>
+        <v>20974.0</v>
       </c>
       <c r="I60" t="n" s="6">
-        <v>79445.0</v>
+        <v>79859.0</v>
       </c>
       <c r="J60" t="n" s="6">
-        <v>60008.0</v>
+        <v>60616.0</v>
       </c>
     </row>
     <row r="61">
@@ -2445,31 +2445,31 @@
         <v>77</v>
       </c>
       <c r="B61" t="n" s="8">
-        <v>373423.0</v>
+        <v>377145.0</v>
       </c>
       <c r="C61" t="n" s="9">
-        <v>0.7543953702613723</v>
+        <v>0.7563115451289752</v>
       </c>
       <c r="D61" t="n" s="8">
-        <v>558063.0</v>
+        <v>561317.0</v>
       </c>
       <c r="E61" t="n" s="9">
-        <v>1.1274081765562705</v>
+        <v>1.1256427304542311</v>
       </c>
       <c r="F61" t="n" s="8">
-        <v>1047811.0</v>
+        <v>1057171.0</v>
       </c>
       <c r="G61" t="n" s="9">
-        <v>2.116805251173438</v>
+        <v>2.120008570909183</v>
       </c>
       <c r="H61" t="n" s="10">
-        <v>15727.0</v>
+        <v>15868.0</v>
       </c>
       <c r="I61" t="n" s="10">
-        <v>40074.0</v>
+        <v>40180.0</v>
       </c>
       <c r="J61" t="n" s="10">
-        <v>105235.0</v>
+        <v>106107.0</v>
       </c>
     </row>
     <row r="62">
@@ -2477,31 +2477,31 @@
         <v>78</v>
       </c>
       <c r="B62" t="n" s="6">
-        <v>1130198.0</v>
+        <v>1141135.0</v>
       </c>
       <c r="C62" t="n" s="7">
-        <v>2.283244842119158</v>
+        <v>2.2883866286196373</v>
       </c>
       <c r="D62" t="n" s="6">
-        <v>851068.0</v>
+        <v>859979.0</v>
       </c>
       <c r="E62" t="n" s="7">
-        <v>1.7193417624988432</v>
+        <v>1.7245675967292977</v>
       </c>
       <c r="F62" t="n" s="6">
-        <v>500546.0</v>
+        <v>504781.0</v>
       </c>
       <c r="G62" t="n" s="7">
-        <v>1.0112113742400677</v>
+        <v>1.012267690309428</v>
       </c>
       <c r="H62" t="n" s="6">
-        <v>84075.0</v>
+        <v>84755.0</v>
       </c>
       <c r="I62" t="n" s="6">
-        <v>54687.0</v>
+        <v>55105.0</v>
       </c>
       <c r="J62" t="n" s="6">
-        <v>36122.0</v>
+        <v>36186.0</v>
       </c>
     </row>
     <row r="63">
@@ -2509,31 +2509,31 @@
         <v>79</v>
       </c>
       <c r="B63" t="n" s="8">
-        <v>962085.0</v>
+        <v>968268.0</v>
       </c>
       <c r="C63" t="n" s="9">
-        <v>1.9436201567603288</v>
+        <v>1.9417260395310627</v>
       </c>
       <c r="D63" t="n" s="8">
-        <v>1127874.0</v>
+        <v>1137211.0</v>
       </c>
       <c r="E63" t="n" s="9">
-        <v>2.278549858573722</v>
+        <v>2.280517595480961</v>
       </c>
       <c r="F63" t="n" s="8">
-        <v>1055913.0</v>
+        <v>1064853.0</v>
       </c>
       <c r="G63" t="n" s="9">
-        <v>2.1331730466489645</v>
+        <v>2.13541374740544</v>
       </c>
       <c r="H63" t="n" s="10">
-        <v>43241.0</v>
+        <v>43396.0</v>
       </c>
       <c r="I63" t="n" s="10">
-        <v>63019.0</v>
+        <v>63580.0</v>
       </c>
       <c r="J63" t="n" s="10">
-        <v>52907.0</v>
+        <v>53347.0</v>
       </c>
     </row>
     <row r="64">
@@ -2541,31 +2541,31 @@
         <v>80</v>
       </c>
       <c r="B64" t="n" s="6">
-        <v>910435.0</v>
+        <v>916020.0</v>
       </c>
       <c r="C64" t="n" s="7">
-        <v>1.8392759656580135</v>
+        <v>1.8369499836111944</v>
       </c>
       <c r="D64" t="n" s="6">
-        <v>1413113.0</v>
+        <v>1425312.0</v>
       </c>
       <c r="E64" t="n" s="7">
-        <v>2.8547944418425173</v>
+        <v>2.858263853453897</v>
       </c>
       <c r="F64" t="n" s="6">
-        <v>450250.0</v>
+        <v>454055.0</v>
       </c>
       <c r="G64" t="n" s="7">
-        <v>0.9096025565114704</v>
+        <v>0.9105437925029812</v>
       </c>
       <c r="H64" t="n" s="6">
-        <v>43422.0</v>
+        <v>43582.0</v>
       </c>
       <c r="I64" t="n" s="6">
-        <v>104074.0</v>
+        <v>104960.0</v>
       </c>
       <c r="J64" t="n" s="6">
-        <v>10736.0</v>
+        <v>10804.0</v>
       </c>
     </row>
     <row r="65">
@@ -2573,31 +2573,31 @@
         <v>81</v>
       </c>
       <c r="B65" t="n" s="8">
-        <v>1246563.0</v>
+        <v>1257959.0</v>
       </c>
       <c r="C65" t="n" s="9">
-        <v>2.518327355141828</v>
+        <v>2.5226608201060614</v>
       </c>
       <c r="D65" t="n" s="8">
-        <v>1172833.0</v>
+        <v>1183330.0</v>
       </c>
       <c r="E65" t="n" s="9">
-        <v>2.369376779924525</v>
+        <v>2.373002799181933</v>
       </c>
       <c r="F65" t="n" s="8">
-        <v>1593892.0</v>
+        <v>1607564.0</v>
       </c>
       <c r="G65" t="n" s="9">
-        <v>3.220007191567308</v>
+        <v>3.223744747335152</v>
       </c>
       <c r="H65" t="n" s="10">
-        <v>44750.0</v>
+        <v>45070.0</v>
       </c>
       <c r="I65" t="n" s="10">
-        <v>34640.0</v>
+        <v>34820.0</v>
       </c>
       <c r="J65" t="n" s="10">
-        <v>92058.0</v>
+        <v>92728.0</v>
       </c>
     </row>
     <row r="67">
@@ -2605,31 +2605,31 @@
         <v>82</v>
       </c>
       <c r="B67" t="n" s="8">
-        <v>4.9499641E7</v>
+        <v>4.9866355E7</v>
       </c>
       <c r="C67" t="n" s="9">
-        <v>99.99999999999997</v>
+        <v>100.00000000000003</v>
       </c>
       <c r="D67" t="n" s="8">
-        <v>4.9499641E7</v>
+        <v>4.9866355E7</v>
       </c>
       <c r="E67" t="n" s="9">
         <v>100.0</v>
       </c>
       <c r="F67" t="n" s="8">
-        <v>4.9499641E7</v>
+        <v>4.9866355E7</v>
       </c>
       <c r="G67" t="n" s="9">
-        <v>99.99999999999999</v>
+        <v>100.0</v>
       </c>
       <c r="H67" t="n" s="8">
-        <v>9342402.0</v>
+        <v>9422976.0</v>
       </c>
       <c r="I67" t="n" s="8">
-        <v>8877472.0</v>
+        <v>8951839.0</v>
       </c>
       <c r="J67" t="n" s="8">
-        <v>9192562.0</v>
+        <v>9270016.0</v>
       </c>
     </row>
     <row r="68"/>
@@ -2638,16 +2638,16 @@
         <v>83</v>
       </c>
       <c r="B71" t="n" s="15">
-        <v>6017756.0</v>
+        <v>6070855.0</v>
       </c>
       <c r="C71" t="n" s="16">
-        <v>8.100985830871291</v>
+        <v>8.112369111428222</v>
       </c>
       <c r="D71" t="n" s="15">
-        <v>6050140.0</v>
+        <v>6103756.0</v>
       </c>
       <c r="E71" t="n" s="16">
-        <v>8.144580540451898</v>
+        <v>8.15633409760152</v>
       </c>
     </row>
     <row r="72">
@@ -2655,16 +2655,16 @@
         <v>84</v>
       </c>
       <c r="B72" t="n" s="13">
-        <v>3627067.0</v>
+        <v>3653162.0</v>
       </c>
       <c r="C72" t="n" s="14">
-        <v>4.8826868976776145</v>
+        <v>4.88165152484178</v>
       </c>
       <c r="D72" t="n" s="13">
-        <v>3631126.0</v>
+        <v>3657048.0</v>
       </c>
       <c r="E72" t="n" s="14">
-        <v>4.8881510443607805</v>
+        <v>4.886844313397431</v>
       </c>
     </row>
     <row r="73">
@@ -2672,16 +2672,16 @@
         <v>85</v>
       </c>
       <c r="B73" t="n" s="15">
-        <v>4575439.0</v>
+        <v>4614229.0</v>
       </c>
       <c r="C73" t="n" s="16">
-        <v>6.159366798689731</v>
+        <v>6.165907242498188</v>
       </c>
       <c r="D73" t="n" s="15">
-        <v>4598681.0</v>
+        <v>4637054.0</v>
       </c>
       <c r="E73" t="n" s="16">
-        <v>6.1906547260635065</v>
+        <v>6.196407859786585</v>
       </c>
     </row>
     <row r="74">
@@ -2689,16 +2689,16 @@
         <v>86</v>
       </c>
       <c r="B74" t="n" s="13">
-        <v>5115769.0</v>
+        <v>5159000.0</v>
       </c>
       <c r="C74" t="n" s="14">
-        <v>6.886748512736409</v>
+        <v>6.893874461811096</v>
       </c>
       <c r="D74" t="n" s="13">
-        <v>4968581.0</v>
+        <v>5010209.0</v>
       </c>
       <c r="E74" t="n" s="14">
-        <v>6.688606896081582</v>
+        <v>6.695047852962999</v>
       </c>
     </row>
     <row r="75">
@@ -2706,16 +2706,16 @@
         <v>87</v>
       </c>
       <c r="B75" t="n" s="15">
-        <v>4256760.0</v>
+        <v>4287888.0</v>
       </c>
       <c r="C75" t="n" s="16">
-        <v>5.730367340486999</v>
+        <v>5.729823915159189</v>
       </c>
       <c r="D75" t="n" s="15">
-        <v>4273526.0</v>
+        <v>4305171.0</v>
       </c>
       <c r="E75" t="n" s="16">
-        <v>5.752937402889062</v>
+        <v>5.75291886230466</v>
       </c>
     </row>
     <row r="76">
@@ -2723,16 +2723,16 @@
         <v>88</v>
       </c>
       <c r="B76" t="n" s="13">
-        <v>3876774.0</v>
+        <v>3900303.0</v>
       </c>
       <c r="C76" t="n" s="14">
-        <v>5.2188375938622675</v>
+        <v>5.211901384963211</v>
       </c>
       <c r="D76" t="n" s="13">
-        <v>3873394.0</v>
+        <v>3896933.0</v>
       </c>
       <c r="E76" t="n" s="14">
-        <v>5.214287503744233</v>
+        <v>5.207398117481857</v>
       </c>
     </row>
     <row r="77">
@@ -2740,16 +2740,16 @@
         <v>89</v>
       </c>
       <c r="B77" t="n" s="15">
-        <v>4295121.0</v>
+        <v>4312014.0</v>
       </c>
       <c r="C77" t="n" s="16">
-        <v>5.782008170965678</v>
+        <v>5.762063034225996</v>
       </c>
       <c r="D77" t="n" s="15">
-        <v>4309167.0</v>
+        <v>4326115.0</v>
       </c>
       <c r="E77" t="n" s="16">
-        <v>5.800916622385181</v>
+        <v>5.780905934746638</v>
       </c>
     </row>
     <row r="78">
@@ -2757,16 +2757,16 @@
         <v>90</v>
       </c>
       <c r="B78" t="n" s="13">
-        <v>4929739.0</v>
+        <v>4971172.0</v>
       </c>
       <c r="C78" t="n" s="14">
-        <v>6.636318552778414</v>
+        <v>6.642883445642641</v>
       </c>
       <c r="D78" t="n" s="13">
-        <v>4953061.0</v>
+        <v>4993994.0</v>
       </c>
       <c r="E78" t="n" s="14">
-        <v>6.667714174592854</v>
+        <v>6.673380054087582</v>
       </c>
     </row>
     <row r="79">
@@ -2774,16 +2774,16 @@
         <v>91</v>
       </c>
       <c r="B79" t="n" s="15">
-        <v>5379390.0</v>
+        <v>5418525.0</v>
       </c>
       <c r="C79" t="n" s="16">
-        <v>7.24162996451347</v>
+        <v>7.240672827715636</v>
       </c>
       <c r="D79" t="n" s="15">
-        <v>5285132.0</v>
+        <v>5324057.0</v>
       </c>
       <c r="E79" t="n" s="16">
-        <v>7.114741682162664</v>
+        <v>7.114437019873347</v>
       </c>
     </row>
     <row r="80">
@@ -2791,16 +2791,16 @@
         <v>92</v>
       </c>
       <c r="B80" t="n" s="13">
-        <v>4776034.0</v>
+        <v>4801249.0</v>
       </c>
       <c r="C80" t="n" s="14">
-        <v>6.429403877751033</v>
+        <v>6.415818543496038</v>
       </c>
       <c r="D80" t="n" s="13">
-        <v>4732109.0</v>
+        <v>4756874.0</v>
       </c>
       <c r="E80" t="n" s="14">
-        <v>6.3702728989242035</v>
+        <v>6.35652106738771</v>
       </c>
     </row>
     <row r="81">
@@ -2808,16 +2808,16 @@
         <v>93</v>
       </c>
       <c r="B81" t="n" s="15">
-        <v>4330400.0</v>
+        <v>4356205.0</v>
       </c>
       <c r="C81" t="n" s="16">
-        <v>5.829500073117795</v>
+        <v>5.821114634602404</v>
       </c>
       <c r="D81" t="n" s="15">
-        <v>4321328.0</v>
+        <v>4346871.0</v>
       </c>
       <c r="E81" t="n" s="16">
-        <v>5.817287523546548</v>
+        <v>5.808641786332092</v>
       </c>
     </row>
     <row r="82">
@@ -2825,16 +2825,16 @@
         <v>94</v>
       </c>
       <c r="B82" t="n" s="13">
-        <v>3530134.0</v>
+        <v>3555632.0</v>
       </c>
       <c r="C82" t="n" s="14">
-        <v>4.752197582467119</v>
+        <v>4.751324024112873</v>
       </c>
       <c r="D82" t="n" s="13">
-        <v>3506249.0</v>
+        <v>3531745.0</v>
       </c>
       <c r="E82" t="n" s="14">
-        <v>4.720044061026509</v>
+        <v>4.719404276241331</v>
       </c>
     </row>
     <row r="83">
@@ -2842,16 +2842,16 @@
         <v>95</v>
       </c>
       <c r="B83" t="n" s="15">
-        <v>3594622.0</v>
+        <v>3630799.0</v>
       </c>
       <c r="C83" t="n" s="16">
-        <v>4.839010071086005</v>
+        <v>4.851768269445487</v>
       </c>
       <c r="D83" t="n" s="15">
-        <v>3658505.0</v>
+        <v>3695076.0</v>
       </c>
       <c r="E83" t="n" s="16">
-        <v>4.925008120497371</v>
+        <v>4.937660413035685</v>
       </c>
     </row>
     <row r="84">
@@ -2859,16 +2859,16 @@
         <v>96</v>
       </c>
       <c r="B84" t="n" s="13">
-        <v>5129273.0</v>
+        <v>5167499.0</v>
       </c>
       <c r="C84" t="n" s="14">
-        <v>6.904927334320416</v>
+        <v>6.905231515319708</v>
       </c>
       <c r="D84" t="n" s="13">
-        <v>5121598.0</v>
+        <v>5160355.0</v>
       </c>
       <c r="E84" t="n" s="14">
-        <v>6.8945953989192565</v>
+        <v>6.8956851227717</v>
       </c>
     </row>
     <row r="85">
@@ -2876,16 +2876,16 @@
         <v>97</v>
       </c>
       <c r="B85" t="n" s="15">
-        <v>4643858.0</v>
+        <v>4677099.0</v>
       </c>
       <c r="C85" t="n" s="16">
-        <v>6.25147112288672</v>
+        <v>6.249919238507892</v>
       </c>
       <c r="D85" t="n" s="15">
-        <v>4792983.0</v>
+        <v>4827746.0</v>
       </c>
       <c r="E85" t="n" s="16">
-        <v>6.452220291186113</v>
+        <v>6.451225985173613</v>
       </c>
     </row>
     <row r="86">
@@ -2893,16 +2893,16 @@
         <v>98</v>
       </c>
       <c r="B86" t="n" s="13">
-        <v>6206107.0</v>
+        <v>6258920.0</v>
       </c>
       <c r="C86" t="n" s="14">
-        <v>8.35454027578904</v>
+        <v>8.363676826229637</v>
       </c>
       <c r="D86" t="n" s="13">
-        <v>6208663.0</v>
+        <v>6261547.0</v>
       </c>
       <c r="E86" t="n" s="14">
-        <v>8.35798111316824</v>
+        <v>8.367187236815251</v>
       </c>
     </row>
     <row r="88">
@@ -2910,16 +2910,16 @@
         <v>82</v>
       </c>
       <c r="B88" t="n" s="15">
-        <v>7.4284243E7</v>
+        <v>7.4834551E7</v>
       </c>
       <c r="C88" t="n" s="16">
-        <v>100.00000000000001</v>
+        <v>100.0</v>
       </c>
       <c r="D88" t="n" s="15">
-        <v>7.4284243E7</v>
+        <v>7.4834551E7</v>
       </c>
       <c r="E88" t="n" s="16">
-        <v>99.99999999999999</v>
+        <v>100.0</v>
       </c>
     </row>
   </sheetData>
